--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -41,9 +41,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -111,12 +112,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,248 +296,311 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.99"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>2805.89</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68978.21</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+        <v>73526.21</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
         <v>2793.29</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>20000</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>45654</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68978.21</v>
-      </c>
-      <c r="F3" s="0" t="n">
+        <v>73526.21</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>4302.73999999999</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+        <v>-245.260000000009</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>7000</v>
       </c>
+      <c r="D4" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>73526.21</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>77829.09</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <f aca="false">F4-E4</f>
+        <v>4302.87999999999</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>1434.72</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>10000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="n">
         <v>721.5</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="n">
         <v>257.87</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>1800</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="n">
+      <c r="C22" s="1" t="n">
         <v>300</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>200</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="n">
+      <c r="B25" s="2" t="n">
         <v>45644</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="2" t="n">
         <v>45644</v>
       </c>
-      <c r="C26" s="0" t="n">
+      <c r="C26" s="1" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="n">
+      <c r="B27" s="2" t="n">
         <v>45647</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="C27" s="1" t="n">
         <v>133</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="n">
+      <c r="B28" s="2" t="n">
         <v>45647</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C28" s="1" t="n">
         <f aca="false">-22.3*7.3</f>
         <v>-162.79</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="n">
+      <c r="B29" s="2" t="n">
         <v>45654</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="C29" s="1" t="n">
         <v>880</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="n">
+      <c r="B30" s="2" t="n">
         <v>45654</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="C30" s="1" t="n">
         <v>900</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="n">
+      <c r="B31" s="2" t="n">
         <v>45654</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="1" t="n">
         <v>750</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3" t="n">
+        <v>45658</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -41,10 +41,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -112,7 +113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -126,6 +127,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,7 +304,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,7 +344,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73526.21</v>
+        <v>73014.829023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,14 +359,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73526.21</v>
+        <v>73014.829023</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>-245.260000000009</v>
+        <v>266.120976999999</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,27 +376,41 @@
       <c r="C4" s="1" t="n">
         <v>7000</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="2" t="n">
         <v>45658</v>
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73526.21</v>
+        <v>73014.829023</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>4302.87999999999</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4814.260977</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>1434.72</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>10000</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>45665</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>73014.829023</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>77815.62</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <f aca="false">F5-E5</f>
+        <v>4800.790977</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,51 +572,95 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="C32" s="1" t="n">
         <v>750</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="C33" s="0" t="n">
+      <c r="C33" s="1" t="n">
         <v>499</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="C34" s="0" t="n">
+      <c r="C34" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="2" t="n">
         <v>45657</v>
       </c>
-      <c r="C35" s="0" t="n">
+      <c r="C35" s="1" t="n">
         <v>500</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="2" t="n">
         <v>45658</v>
       </c>
-      <c r="C36" s="0" t="n">
+      <c r="C36" s="1" t="n">
         <v>800</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="2" t="n">
         <v>45658</v>
       </c>
-      <c r="C37" s="0" t="n">
+      <c r="C37" s="1" t="n">
         <v>999</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3" t="n">
+        <v>45662</v>
+      </c>
+      <c r="C38" s="4" t="n">
+        <f aca="false">-20*7.3</f>
+        <v>-146</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C39" s="4" t="n">
+        <f aca="false">-77.03849*7.3</f>
+        <v>-562.380977</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="3" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C40" s="4" t="n">
+        <f aca="false">-100*7.3</f>
+        <v>-730</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="3" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C41" s="4" t="n">
+        <f aca="false">-10*7.3</f>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -41,11 +41,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -113,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,10 +126,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,15 +299,15 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,7 +339,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73014.829023</v>
+        <v>77106.129023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,14 +354,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73014.829023</v>
+        <v>77106.129023</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>266.120976999999</v>
+        <v>-3825.179023</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,14 +376,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73014.829023</v>
+        <v>77106.129023</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>4814.260977</v>
+        <v>722.960976999995</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,27 +393,41 @@
       <c r="C5" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73014.829023</v>
+        <v>77106.129023</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>4800.790977</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>709.490976999994</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>721.5</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>5000</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>45671</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>77106.129023</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>81819.62</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <f aca="false">F6-E6</f>
+        <v>4713.49097699999</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,47 +628,112 @@
         <v>999</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="3" t="n">
+    <row r="38" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2" t="n">
         <v>45662</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="1" t="n">
         <f aca="false">-20*7.3</f>
         <v>-146</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="3" t="n">
+    <row r="39" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2" t="n">
         <v>45665</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="1" t="n">
         <f aca="false">-77.03849*7.3</f>
         <v>-562.380977</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="3" t="n">
+    <row r="40" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="2" t="n">
         <v>45665</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="1" t="n">
         <f aca="false">-100*7.3</f>
         <v>-730</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="3" t="n">
+    <row r="41" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="2" t="n">
         <v>45665</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="1" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="n">
+    <row r="42" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="2" t="n">
         <v>45665</v>
       </c>
-      <c r="C42" s="0" t="n">
+      <c r="C42" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="n">
+        <v>45668</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <f aca="false">-19*7.3</f>
+        <v>-138.7</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3" t="n">
+        <v>45666</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3" t="n">
+        <v>45666</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3" t="n">
+        <v>45669</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3" t="n">
+        <v>45669</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3" t="n">
+        <v>45669</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3" t="n">
+        <v>45669</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3" t="n">
+        <v>45669</v>
+      </c>
+      <c r="C50" s="0" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -298,16 +298,16 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,7 +415,7 @@
       <c r="C6" s="1" t="n">
         <v>5000</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="E6" s="1" t="n">
@@ -672,68 +672,84 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="n">
+    <row r="43" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="2" t="n">
         <v>45668</v>
       </c>
-      <c r="C43" s="0" t="n">
+      <c r="C43" s="1" t="n">
         <f aca="false">-19*7.3</f>
         <v>-138.7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="3" t="n">
+    <row r="44" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="2" t="n">
         <v>45666</v>
       </c>
-      <c r="C44" s="0" t="n">
+      <c r="C44" s="1" t="n">
         <v>880</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="3" t="n">
+    <row r="45" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="2" t="n">
         <v>45666</v>
       </c>
-      <c r="C45" s="0" t="n">
+      <c r="C45" s="1" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="3" t="n">
+    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="2" t="n">
         <v>45669</v>
       </c>
-      <c r="C46" s="0" t="n">
+      <c r="C46" s="1" t="n">
         <v>800</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="3" t="n">
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="2" t="n">
         <v>45669</v>
       </c>
-      <c r="C47" s="0" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="3" t="n">
+      <c r="C47" s="1" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="2" t="n">
         <v>45669</v>
       </c>
-      <c r="C48" s="0" t="n">
+      <c r="C48" s="1" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="3" t="n">
+    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="2" t="n">
         <v>45669</v>
       </c>
-      <c r="C49" s="0" t="n">
+      <c r="C49" s="1" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="3" t="n">
+    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="2" t="n">
         <v>45669</v>
       </c>
-      <c r="C50" s="0" t="n">
+      <c r="C50" s="1" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3" t="n">
+        <v>45672</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3" t="n">
+        <v>45672</v>
+      </c>
+      <c r="C52" s="0" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -41,10 +41,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -112,7 +113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -126,6 +127,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -298,15 +303,15 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.57421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.61"/>
   </cols>
   <sheetData>
@@ -339,7 +344,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>77106.129023</v>
+        <v>68879.029023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,14 +359,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>77106.129023</v>
+        <v>68879.029023</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>-3825.179023</v>
+        <v>4401.920977</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,14 +381,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>77106.129023</v>
+        <v>68879.029023</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>722.960976999995</v>
+        <v>8950.060977</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,14 +403,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>77106.129023</v>
+        <v>68879.029023</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>709.490976999994</v>
+        <v>8936.590977</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,22 +425,36 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>77106.129023</v>
+        <v>68879.029023</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>4713.49097699999</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>12940.590977</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>257.87</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>1800</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>45676</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>68879.029023</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>74714.84</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <f aca="false">F7-E7</f>
+        <v>5835.810977</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -737,20 +756,47 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="3" t="n">
+    <row r="51" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="2" t="n">
         <v>45672</v>
       </c>
-      <c r="C51" s="0" t="n">
+      <c r="C51" s="1" t="n">
         <v>-1000</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="3" t="n">
+    <row r="52" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="2" t="n">
         <v>45672</v>
       </c>
-      <c r="C52" s="0" t="n">
+      <c r="C52" s="1" t="n">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3" t="n">
+        <v>45676</v>
+      </c>
+      <c r="C53" s="4" t="n">
+        <f aca="false">-104*7.3</f>
+        <v>-759.2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3" t="n">
+        <v>45676</v>
+      </c>
+      <c r="C54" s="4" t="n">
+        <f aca="false">-13*7.3</f>
+        <v>-94.9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3" t="n">
+        <v>45676</v>
+      </c>
+      <c r="C55" s="4" t="n">
+        <f aca="false">-1010*7.3</f>
+        <v>-7373</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -41,11 +41,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -113,7 +112,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -127,10 +126,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,15 +299,15 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.578125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.42"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,7 +339,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68879.029023</v>
+        <v>73843.029023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,14 +354,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68879.029023</v>
+        <v>73843.029023</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>4401.920977</v>
+        <v>-562.079022999998</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,14 +376,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68879.029023</v>
+        <v>73843.029023</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>8950.060977</v>
+        <v>3986.060977</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,14 +398,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68879.029023</v>
+        <v>73843.029023</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>8936.590977</v>
+        <v>3972.590977</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,14 +420,14 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68879.029023</v>
+        <v>73843.029023</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>12940.590977</v>
+        <v>7976.590977</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,24 +437,38 @@
       <c r="C7" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>68879.029023</v>
+        <v>73843.029023</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>74714.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
-        <v>5835.810977</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>871.810977000001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>45677</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>73843.029023</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>79525.45</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <f aca="false">F8-E8</f>
+        <v>5682.420977</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,31 +781,40 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="3" t="n">
+    <row r="53" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="2" t="n">
         <v>45676</v>
       </c>
-      <c r="C53" s="4" t="n">
+      <c r="C53" s="1" t="n">
         <f aca="false">-104*7.3</f>
         <v>-759.2</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="3" t="n">
+    <row r="54" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="2" t="n">
         <v>45676</v>
       </c>
-      <c r="C54" s="4" t="n">
+      <c r="C54" s="1" t="n">
         <f aca="false">-13*7.3</f>
         <v>-94.9</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="3" t="n">
+    <row r="55" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="2" t="n">
         <v>45676</v>
       </c>
-      <c r="C55" s="4" t="n">
+      <c r="C55" s="1" t="n">
         <f aca="false">-1010*7.3</f>
         <v>-7373</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3" t="n">
+        <v>45677</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <f aca="false">680*7.3</f>
+        <v>4964</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -299,15 +299,15 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.23"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,7 +339,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73843.029023</v>
+        <v>78872.656023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,14 +354,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73843.029023</v>
+        <v>78872.656023</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>-562.079022999998</v>
+        <v>-5591.70602300001</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,14 +376,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73843.029023</v>
+        <v>78872.656023</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>3986.060977</v>
+        <v>-1043.56602300001</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,14 +398,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73843.029023</v>
+        <v>78872.656023</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>3972.590977</v>
+        <v>-1057.03602300001</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,14 +420,14 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73843.029023</v>
+        <v>78872.656023</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>7976.590977</v>
+        <v>2946.96397699999</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,38 +442,52 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73843.029023</v>
+        <v>78872.656023</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>74714.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
-        <v>871.810977000001</v>
+        <v>-4157.81602300001</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="2" t="n">
         <v>45677</v>
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>73843.029023</v>
+        <v>78872.656023</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>79525.45</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">F8-E8</f>
-        <v>5682.420977</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>652.793976999994</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>45678</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>78872.656023</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>84366.68</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <f aca="false">F9-E9</f>
+        <v>5494.02397699999</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -808,13 +822,40 @@
         <v>-7373</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="3" t="n">
+    <row r="56" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="C56" s="0" t="n">
+      <c r="C56" s="1" t="n">
         <f aca="false">680*7.3</f>
         <v>4964</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="3" t="n">
+        <v>45677</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <f aca="false">276*7.3</f>
+        <v>2014.8</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="3" t="n">
+        <v>45678</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <f aca="false">276*7.3</f>
+        <v>2014.8</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3" t="n">
+        <v>45678</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <f aca="false">136.99*7.3</f>
+        <v>1000.027</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -299,15 +299,15 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.30859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -339,7 +339,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,14 +354,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>-5591.70602300001</v>
+        <v>-4912.806023</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,14 +376,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>-1043.56602300001</v>
+        <v>-364.666022999998</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,14 +398,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>-1057.03602300001</v>
+        <v>-378.136022999999</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,14 +420,14 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>2946.96397699999</v>
+        <v>3625.863977</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,14 +442,14 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>74714.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
-        <v>-4157.81602300001</v>
+        <v>-3478.916023</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,38 +461,52 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>79525.45</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">F8-E8</f>
-        <v>652.793976999994</v>
+        <v>1331.693977</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="2" t="n">
         <v>45678</v>
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78872.656023</v>
+        <v>78193.756023</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>84366.68</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">F9-E9</f>
-        <v>5494.02397699999</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6172.923977</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>78193.756023</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>83617.92</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <f aca="false">F10-E10</f>
+        <v>5424.163977</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -832,30 +846,48 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="C57" s="0" t="n">
+      <c r="C57" s="1" t="n">
         <f aca="false">276*7.3</f>
         <v>2014.8</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>45678</v>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C58" s="1" t="n">
         <f aca="false">276*7.3</f>
         <v>2014.8</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="3" t="n">
+    <row r="59" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="2" t="n">
         <v>45678</v>
       </c>
-      <c r="C59" s="0" t="n">
+      <c r="C59" s="1" t="n">
         <f aca="false">136.99*7.3</f>
         <v>1000.027</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <f aca="false">-63*7.3</f>
+        <v>-459.9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <f aca="false">-30*7.3</f>
+        <v>-219</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -41,10 +41,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -112,7 +113,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -126,6 +127,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -299,7 +304,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,7 +344,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -354,14 +359,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>-4912.806023</v>
+        <v>24360.193977</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -376,14 +381,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>-364.666022999998</v>
+        <v>28908.333977</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,14 +403,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>-378.136022999999</v>
+        <v>28894.863977</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,14 +425,14 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>3625.863977</v>
+        <v>32898.863977</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,14 +447,14 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>74714.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
-        <v>-3478.916023</v>
+        <v>25794.083977</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -461,14 +466,14 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>79525.45</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">F8-E8</f>
-        <v>1331.693977</v>
+        <v>30604.693977</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,33 +485,33 @@
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>84366.68</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">F9-E9</f>
-        <v>6172.923977</v>
+        <v>35445.923977</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>78193.756023</v>
+        <v>48920.756023</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>83617.92</v>
+        <v>54393.67</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">F10-E10</f>
-        <v>5424.163977</v>
+        <v>5472.913977</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -872,22 +877,31 @@
         <v>1000.027</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="3" t="n">
+    <row r="60" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="2" t="n">
         <v>45679</v>
       </c>
-      <c r="C60" s="0" t="n">
+      <c r="C60" s="1" t="n">
         <f aca="false">-63*7.3</f>
         <v>-459.9</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="3" t="n">
+    <row r="61" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="2" t="n">
         <v>45679</v>
       </c>
-      <c r="C61" s="0" t="n">
+      <c r="C61" s="1" t="n">
         <f aca="false">-30*7.3</f>
         <v>-219</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="C62" s="4" t="n">
+        <f aca="false">-4010*7.3</f>
+        <v>-29273</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="IBKR" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -36,16 +37,27 @@
   <si>
     <t xml:space="preserve">benifical</t>
   </si>
+  <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deposit(EUR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deposit(USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US-T treasure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -113,7 +125,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -126,11 +138,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -303,8 +311,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -344,7 +352,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -359,14 +367,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>24360.193977</v>
+        <v>24367.5181327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -381,14 +389,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>28908.333977</v>
+        <v>28915.6581327</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,14 +411,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>28894.863977</v>
+        <v>28902.1881327</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -425,14 +433,14 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>32898.863977</v>
+        <v>32906.1881327</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -447,14 +455,14 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>74714.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
-        <v>25794.083977</v>
+        <v>25801.4081327</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,14 +474,14 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>79525.45</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">F8-E8</f>
-        <v>30604.693977</v>
+        <v>30612.0181327</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -485,14 +493,14 @@
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>84366.68</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">F9-E9</f>
-        <v>35445.923977</v>
+        <v>35453.2481327</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -504,19 +512,33 @@
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48920.756023</v>
+        <v>48913.4318673</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>54393.67</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">F10-E10</f>
-        <v>5472.913977</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5480.2381327</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>48913.4318673</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>54125.82</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <f aca="false">F11-E11</f>
+        <v>5212.38813270001</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,13 +917,76 @@
         <v>-219</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="3" t="n">
+    <row r="62" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="2" t="n">
         <v>45679</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="1" t="n">
         <f aca="false">-4010*7.3</f>
         <v>-29273</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <f aca="false">50*7.3</f>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <f aca="false">3*7.3</f>
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <f aca="false">97.6366*7.3</f>
+        <v>712.74718</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <f aca="false">4800*7.3</f>
+        <v>35040</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <f aca="false">-4800*7.3</f>
+        <v>-35040</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="n">
+        <v>45682</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <f aca="false">-51.033309*7.3</f>
+        <v>-372.5431557</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <f aca="false">-100.6066*7.3</f>
+        <v>-734.42818</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -914,4 +999,71 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>45676</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>982.35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3847.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="IBKR" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -48,6 +49,30 @@
   </si>
   <si>
     <t xml:space="preserve">US-T treasure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">settlement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maturity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redemption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YIELD</t>
   </si>
 </sst>
 </file>
@@ -1006,55 +1031,177 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.84"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>982.35</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>3847.3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.98"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
-        <v>45676</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
-        <v>45679</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>982.35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
-        <v>45679</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>3847.3</v>
+        <v>12</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>47509</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <f aca="false">YIELD(B2,C2,D2,E2,F2,G2,1)</f>
+        <v>0.06177624640903</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>46418</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>94.7053</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">YIELD(B3,C3,D3,E3,F3,G3,1)</f>
+        <v>0.0427206158301701</v>
       </c>
     </row>
   </sheetData>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">withdraw(USDC)</t>
   </si>
   <si>
     <t xml:space="preserve">deposit(EUR)</t>
@@ -163,7 +166,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1031,19 +1034,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,42 +1063,91 @@
       <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="n">
+        <v>45682</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="n">
+        <v>45683</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>45676</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B5" s="1" t="n">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
+        <v>45676</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>45679</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1" t="n">
         <v>982.35</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>45679</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1" t="n">
         <v>3847.3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>45683</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>4566.74</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>45683</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>9828.84</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1113,93 +1166,93 @@
   </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.98"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="0" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="2" t="n">
         <v>45683</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="2" t="n">
         <v>47509</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>0.05</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <f aca="false">YIELD(B2,C2,D2,E2,F2,G2,1)</f>
         <v>0.06177624640903</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="2" t="n">
         <v>45683</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="2" t="n">
         <v>46418</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <v>0.015</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <v>94.7053</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false">YIELD(B3,C3,D3,E3,F3,G3,1)</f>
         <v>0.0427206158301701</v>
       </c>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -1036,8 +1036,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="n">
-        <v>45683</v>
+        <v>45685</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>4566.74</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
-        <v>45683</v>
+        <v>45685</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>9828.84</v>
@@ -1164,17 +1164,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,6 +1255,60 @@
       <c r="H3" s="1" t="n">
         <f aca="false">YIELD(B3,C3,D3,E3,F3,G3,1)</f>
         <v>0.0427206158301701</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>46418</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>94.82617</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <f aca="false">YIELD(B4,C4,D4,E4,F4,G4,1)</f>
+        <v>0.0421392704652695</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>46446</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0.01875</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>95.35</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <f aca="false">YIELD(B5,C5,D5,E5,F5,G5,1)</f>
+        <v>0.0422701627892414</v>
       </c>
     </row>
   </sheetData>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve">data</t>
   </si>
@@ -76,6 +76,15 @@
   </si>
   <si>
     <t xml:space="preserve">YIELD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward</t>
   </si>
 </sst>
 </file>
@@ -153,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -167,6 +176,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1037,7 +1050,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1067,36 +1080,60 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>4010</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>45682</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="C3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>45683</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>4800</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>45676</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>1010</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,6 +1144,9 @@
       <c r="C6" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1116,6 +1156,9 @@
       <c r="C7" s="1" t="n">
         <v>982.35</v>
       </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1125,26 +1168,48 @@
       <c r="C8" s="1" t="n">
         <v>3847.3</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>4566.74</v>
       </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>45685</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>9828.84</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>45685</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">D10-E11</f>
+        <v>289.040000000001</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>9539.8</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
@@ -1164,17 +1229,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,6 +1267,15 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
@@ -1285,7 +1359,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="n">
@@ -1294,21 +1368,32 @@
       <c r="C5" s="2" t="n">
         <v>46446</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0.01875</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>95.35</v>
+      <c r="E5" s="1" t="n">
+        <v>95.398</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="1" t="n">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="n">
         <f aca="false">YIELD(B5,C5,D5,E5,F5,G5,1)</f>
-        <v>0.0422701627892414</v>
+        <v>0.0420200536707634</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>9539.8</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <f aca="false">(C5-B5)/365</f>
+        <v>2.08493150684932</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <f aca="false">H5*J5*I5</f>
+        <v>835.771706833845</v>
       </c>
     </row>
   </sheetData>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
@@ -91,10 +91,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -162,7 +163,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -179,7 +180,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -352,8 +357,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -393,7 +398,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -408,14 +413,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>24367.5181327</v>
+        <v>39108.7179114916</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,14 +435,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>28915.6581327</v>
+        <v>43656.8579114916</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -452,14 +457,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>28902.1881327</v>
+        <v>43643.3879114916</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,14 +479,14 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>32906.1881327</v>
+        <v>47647.3879114916</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,14 +501,14 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>74714.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
-        <v>25801.4081327</v>
+        <v>40542.6079114916</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,14 +520,14 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>79525.45</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">F8-E8</f>
-        <v>30612.0181327</v>
+        <v>45353.2179114916</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -534,14 +539,14 @@
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>84366.68</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">F9-E9</f>
-        <v>35453.2481327</v>
+        <v>50194.4479114916</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -553,14 +558,14 @@
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>54393.67</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">F10-E10</f>
-        <v>5480.2381327</v>
+        <v>20221.4379114916</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -572,19 +577,33 @@
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>48913.4318673</v>
+        <v>34172.2320885084</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>54125.82</v>
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">F11-E11</f>
-        <v>5212.38813270001</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19953.5879114916</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="n">
         <v>100</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>45687</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>34172.2320885084</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>39518.63</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <f aca="false">F12-E12</f>
+        <v>5346.39791149156</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1028,6 +1047,51 @@
       <c r="C69" s="1" t="n">
         <f aca="false">-100.6066*7.3</f>
         <v>-734.42818</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="3" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <f aca="false">20.19*7.3</f>
+        <v>147.387</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="3" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <f aca="false">-2000*7.3</f>
+        <v>-14600</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="3" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <f aca="false">-10*7.3</f>
+        <v>-73</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="3" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <f aca="false">-20.19*7.3</f>
+        <v>-147.387</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="3" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C74" s="4" t="n">
+        <f aca="false">-0.01384003*675.03*7.3</f>
+        <v>-68.19977879157</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1196,8 +1260,8 @@
         <v>9828.84</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="C11" s="1" t="n">
@@ -1231,7 +1295,7 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -1267,13 +1331,13 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1384,14 +1448,14 @@
         <f aca="false">YIELD(B5,C5,D5,E5,F5,G5,1)</f>
         <v>0.0420200536707634</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="1" t="n">
         <v>9539.8</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="5" t="n">
         <f aca="false">(C5-B5)/365</f>
         <v>2.08493150684932</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="5" t="n">
         <f aca="false">H5*J5*I5</f>
         <v>835.771706833845</v>
       </c>

--- a/小贞灵USDT.xlsx
+++ b/小贞灵USDT.xlsx
@@ -91,11 +91,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yy\年m\月d\日"/>
     <numFmt numFmtId="166" formatCode="yy\年m\月d\日"/>
-    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -163,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -177,10 +176,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,15 +353,16 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.1796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.05078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -398,7 +394,7 @@
       </c>
       <c r="E2" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -413,14 +409,14 @@
       </c>
       <c r="E3" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F3" s="1" t="n">
         <v>73280.95</v>
       </c>
       <c r="G3" s="1" t="n">
         <f aca="false">F3-E3</f>
-        <v>39108.7179114916</v>
+        <v>34648.4149114916</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,14 +431,14 @@
       </c>
       <c r="E4" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F4" s="1" t="n">
         <v>77829.09</v>
       </c>
       <c r="G4" s="1" t="n">
         <f aca="false">F4-E4</f>
-        <v>43656.8579114916</v>
+        <v>39196.5549114916</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,14 +453,14 @@
       </c>
       <c r="E5" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>77815.62</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">F5-E5</f>
-        <v>43643.3879114916</v>
+        <v>39183.0849114916</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -479,14 +475,14 @@
       </c>
       <c r="E6" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F6" s="1" t="n">
         <v>81819.62</v>
       </c>
       <c r="G6" s="1" t="n">
         <f aca="false">F6-E6</f>
-        <v>47647.3879114916</v>
+        <v>43187.0849114916</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -501,14 +497,14 @@
       </c>
       <c r="E7" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F7" s="1" t="n">
         <v>74714.84</v>
       </c>
       <c r="G7" s="1" t="n">
         <f aca="false">F7-E7</f>
-        <v>40542.6079114916</v>
+        <v>36082.3049114916</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,14 +516,14 @@
       </c>
       <c r="E8" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>79525.45</v>
       </c>
       <c r="G8" s="1" t="n">
         <f aca="false">F8-E8</f>
-        <v>45353.2179114916</v>
+        <v>40892.9149114916</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,14 +535,14 @@
       </c>
       <c r="E9" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F9" s="1" t="n">
         <v>84366.68</v>
       </c>
       <c r="G9" s="1" t="n">
         <f aca="false">F9-E9</f>
-        <v>50194.4479114916</v>
+        <v>45734.1449114916</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -558,14 +554,14 @@
       </c>
       <c r="E10" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F10" s="1" t="n">
         <v>54393.67</v>
       </c>
       <c r="G10" s="1" t="n">
         <f aca="false">F10-E10</f>
-        <v>20221.4379114916</v>
+        <v>15761.1349114916</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -577,38 +573,52 @@
       </c>
       <c r="E11" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F11" s="1" t="n">
         <v>54125.82</v>
       </c>
       <c r="G11" s="1" t="n">
         <f aca="false">F11-E11</f>
-        <v>19953.5879114916</v>
+        <v>15493.2849114916</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="E12" s="1" t="n">
         <f aca="false">SUM(C:C)</f>
-        <v>34172.2320885084</v>
+        <v>38632.5350885084</v>
       </c>
       <c r="F12" s="1" t="n">
         <v>39518.63</v>
       </c>
       <c r="G12" s="1" t="n">
         <f aca="false">F12-E12</f>
-        <v>5346.39791149156</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>886.094911491564</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>45706</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">SUM(C:C)</f>
+        <v>38632.5350885084</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>43440.67</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <f aca="false">F13-E13</f>
+        <v>4808.13491149157</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,49 +1059,186 @@
         <v>-734.42818</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3" t="n">
+    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="n">
         <v>45687</v>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C70" s="1" t="n">
         <f aca="false">20.19*7.3</f>
         <v>147.387</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3" t="n">
+    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2" t="n">
         <v>45687</v>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C71" s="1" t="n">
         <f aca="false">-2000*7.3</f>
         <v>-14600</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3" t="n">
+    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="n">
         <v>45687</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="1" t="n">
         <f aca="false">-10*7.3</f>
         <v>-73</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3" t="n">
+    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="n">
         <v>45687</v>
       </c>
-      <c r="C73" s="4" t="n">
+      <c r="C73" s="1" t="n">
         <f aca="false">-20.19*7.3</f>
         <v>-147.387</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3" t="n">
+      <c r="B74" s="2" t="n">
         <v>45687</v>
       </c>
-      <c r="C74" s="4" t="n">
+      <c r="C74" s="1" t="n">
         <f aca="false">-0.01384003*675.03*7.3</f>
         <v>-68.19977879157</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="3" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <f aca="false">-544.89*7.3</f>
+        <v>-3977.697</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="3" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="3" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="3" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="3" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="3" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="3" t="n">
+        <v>45695</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="3" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1117,14 +1264,14 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2421875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="14.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,8 +1429,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1299,11 +1446,11 @@
       <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.41015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.2421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="11.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.19"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1331,13 +1478,13 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1451,11 +1598,11 @@
       <c r="I5" s="1" t="n">
         <v>9539.8</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="4" t="n">
         <f aca="false">(C5-B5)/365</f>
         <v>2.08493150684932</v>
       </c>
-      <c r="K5" s="5" t="n">
+      <c r="K5" s="4" t="n">
         <f aca="false">H5*J5*I5</f>
         <v>835.771706833845</v>
       </c>
@@ -1465,8 +1612,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff页 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>